--- a/escenarios.xlsx
+++ b/escenarios.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="14115" windowHeight="4680" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="14115" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Pantalla1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11882" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11882" uniqueCount="15">
   <si>
     <t>1,</t>
   </si>
@@ -39,13 +39,28 @@
     <t>2],</t>
   </si>
   <si>
-    <t>3],</t>
+    <t>100,</t>
   </si>
   <si>
-    <t>3]</t>
+    <t>100],</t>
   </si>
   <si>
-    <t>3,</t>
+    <t>100]</t>
+  </si>
+  <si>
+    <t>101,</t>
+  </si>
+  <si>
+    <t>101],</t>
+  </si>
+  <si>
+    <t>[2,</t>
+  </si>
+  <si>
+    <t>[101,</t>
+  </si>
+  <si>
+    <t>[100,</t>
   </si>
 </sst>
 </file>
@@ -434,17 +449,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM67"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB70" sqref="AB70"/>
+      <selection pane="bottomLeft" activeCell="CF60" sqref="CF60:CM67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="91" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="83" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="90" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="92" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -10474,29 +10492,29 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>0</v>
+      <c r="B37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>0</v>
@@ -10750,29 +10768,29 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>0</v>
+      <c r="B38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>0</v>
@@ -11026,29 +11044,29 @@
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>0</v>
+      <c r="B39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>0</v>
@@ -11302,29 +11320,29 @@
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>0</v>
+      <c r="B40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>0</v>
@@ -11578,29 +11596,29 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>0</v>
+      <c r="B41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>0</v>
@@ -11854,29 +11872,29 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>0</v>
+      <c r="B42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>0</v>
@@ -12130,29 +12148,29 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>0</v>
+      <c r="B43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>0</v>
@@ -12406,29 +12424,29 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>0</v>
+      <c r="B44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>0</v>
@@ -12682,29 +12700,29 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>0</v>
+      <c r="B45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>0</v>
@@ -17345,28 +17363,28 @@
         <v>0</v>
       </c>
       <c r="CF61" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CG61" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CH61" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CI61" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CJ61" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CK61" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CL61" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CM61" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:91" x14ac:dyDescent="0.25">
@@ -17621,28 +17639,28 @@
         <v>0</v>
       </c>
       <c r="CF62" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CG62" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CH62" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CI62" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CJ62" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CK62" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CL62" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CM62" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:91" x14ac:dyDescent="0.25">
@@ -17897,28 +17915,28 @@
         <v>0</v>
       </c>
       <c r="CF63" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CG63" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CH63" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CI63" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CJ63" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CK63" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CL63" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CM63" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:91" x14ac:dyDescent="0.25">
@@ -18173,28 +18191,28 @@
         <v>0</v>
       </c>
       <c r="CF64" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CG64" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CH64" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CI64" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CJ64" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CK64" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CL64" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CM64" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:91" x14ac:dyDescent="0.25">
@@ -18449,28 +18467,28 @@
         <v>0</v>
       </c>
       <c r="CF65" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CG65" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CH65" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CI65" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CJ65" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CK65" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CL65" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CM65" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.25">
@@ -18725,28 +18743,28 @@
         <v>0</v>
       </c>
       <c r="CF66" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CG66" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CH66" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CI66" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CJ66" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CK66" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CL66" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="CM66" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:91" x14ac:dyDescent="0.25">
@@ -19001,28 +19019,28 @@
         <v>0</v>
       </c>
       <c r="CF67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CG67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CH67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CJ67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CK67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CM67" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="CG67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CH67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CI67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CJ67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CK67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CL67" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM67" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -19035,18 +19053,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V12" sqref="V12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CH14" sqref="CH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="90" width="3" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="83" width="3" bestFit="1" customWidth="1"/>
+    <col min="84" max="90" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:91" x14ac:dyDescent="0.25">
@@ -19661,29 +19681,29 @@
       <c r="CE2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="CF2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="2" t="s">
-        <v>5</v>
+      <c r="CF2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:91" x14ac:dyDescent="0.25">
@@ -19937,29 +19957,29 @@
       <c r="CE3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="CF3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="2" t="s">
-        <v>5</v>
+      <c r="CF3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CG3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM3" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:91" x14ac:dyDescent="0.25">
@@ -20213,29 +20233,29 @@
       <c r="CE4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="CF4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="2" t="s">
-        <v>5</v>
+      <c r="CF4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CG4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM4" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:91" x14ac:dyDescent="0.25">
@@ -20489,29 +20509,29 @@
       <c r="CE5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="CF5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="2" t="s">
-        <v>5</v>
+      <c r="CF5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CG5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM5" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:91" x14ac:dyDescent="0.25">
@@ -20765,29 +20785,29 @@
       <c r="CE6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="CF6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM6" s="2" t="s">
-        <v>5</v>
+      <c r="CF6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CG6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM6" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:91" x14ac:dyDescent="0.25">
@@ -21041,29 +21061,29 @@
       <c r="CE7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="CF7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="2" t="s">
-        <v>5</v>
+      <c r="CF7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CG7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM7" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:91" x14ac:dyDescent="0.25">
@@ -21317,29 +21337,29 @@
       <c r="CE8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="CF8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="2" t="s">
-        <v>5</v>
+      <c r="CF8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CG8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM8" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:91" x14ac:dyDescent="0.25">
@@ -21593,29 +21613,29 @@
       <c r="CE9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="CF9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="2" t="s">
-        <v>5</v>
+      <c r="CF9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CG9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CI9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CJ9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CK9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CL9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="CM9" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:91" x14ac:dyDescent="0.25">
@@ -21869,29 +21889,29 @@
       <c r="CE10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="CF10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM10" s="2" t="s">
-        <v>5</v>
+      <c r="CF10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CG10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CI10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CJ10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CK10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CL10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM10" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.25">
@@ -35423,29 +35443,29 @@
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>0</v>
+      <c r="B60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>0</v>
@@ -35699,29 +35719,29 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>0</v>
+      <c r="B61" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>0</v>
@@ -35975,29 +35995,29 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>0</v>
+      <c r="B62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>0</v>
@@ -36251,29 +36271,29 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>0</v>
+      <c r="B63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>0</v>
@@ -36527,29 +36547,29 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>0</v>
+      <c r="B64" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>0</v>
@@ -36803,29 +36823,29 @@
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>0</v>
+      <c r="B65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>0</v>
@@ -37079,29 +37099,29 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>0</v>
+      <c r="B66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>0</v>
@@ -37355,29 +37375,29 @@
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>0</v>
+      <c r="B67" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>0</v>
